--- a/FIle exel mô tả các chức năng/login.xlsx
+++ b/FIle exel mô tả các chức năng/login.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courseman2\FIle exel mô tả các chức năng\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GUI" sheetId="2" r:id="rId1"/>
@@ -634,8 +634,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -645,18 +654,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,6 +685,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
@@ -715,14 +715,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -732,6 +744,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -751,32 +772,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3751,7 +3751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
@@ -5847,91 +5847,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.95" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:20" ht="18.95" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:20" ht="18.95" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:20" ht="18.95" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
     </row>
     <row r="5" spans="1:20" ht="18.95" customHeight="1">
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
     </row>
     <row r="6" spans="1:20" ht="18.95" customHeight="1"/>
     <row r="7" spans="1:20" ht="18.95" customHeight="1">
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="L7" s="42" t="s">
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="L7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
     </row>
     <row r="8" spans="1:20" ht="18.95" customHeight="1">
       <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
       <c r="L8" s="60" t="s">
         <v>40</v>
       </c>
@@ -5948,18 +5948,18 @@
       <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
       <c r="L9" s="63"/>
       <c r="M9" s="64"/>
       <c r="N9" s="64"/>
@@ -5974,18 +5974,18 @@
       <c r="B10" s="9">
         <v>3</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
       <c r="L10" s="63"/>
       <c r="M10" s="64"/>
       <c r="N10" s="64"/>
@@ -6000,18 +6000,18 @@
       <c r="B11" s="9">
         <v>4</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
       <c r="L11" s="63"/>
       <c r="M11" s="64"/>
       <c r="N11" s="64"/>
@@ -6026,18 +6026,18 @@
       <c r="B12" s="9">
         <v>5</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
       <c r="L12" s="63"/>
       <c r="M12" s="64"/>
       <c r="N12" s="64"/>
@@ -6050,14 +6050,14 @@
     </row>
     <row r="13" spans="1:20" ht="18.95" customHeight="1">
       <c r="B13" s="9"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="L13" s="63"/>
       <c r="M13" s="64"/>
       <c r="N13" s="64"/>
@@ -6070,14 +6070,14 @@
     </row>
     <row r="14" spans="1:20" ht="18.95" customHeight="1">
       <c r="B14" s="9"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
       <c r="L14" s="63"/>
       <c r="M14" s="64"/>
       <c r="N14" s="64"/>
@@ -6090,14 +6090,14 @@
     </row>
     <row r="15" spans="1:20" ht="18.95" customHeight="1">
       <c r="B15" s="9"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
       <c r="L15" s="63"/>
       <c r="M15" s="64"/>
       <c r="N15" s="64"/>
@@ -6110,14 +6110,14 @@
     </row>
     <row r="16" spans="1:20" ht="18.95" customHeight="1">
       <c r="B16" s="9"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
       <c r="L16" s="63"/>
       <c r="M16" s="64"/>
       <c r="N16" s="64"/>
@@ -6130,14 +6130,14 @@
     </row>
     <row r="17" spans="1:1025" ht="18.95" customHeight="1">
       <c r="B17" s="9"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
       <c r="L17" s="63"/>
       <c r="M17" s="64"/>
       <c r="N17" s="64"/>
@@ -6150,14 +6150,14 @@
     </row>
     <row r="18" spans="1:1025" ht="18.95" customHeight="1">
       <c r="B18" s="9"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
       <c r="L18" s="63"/>
       <c r="M18" s="64"/>
       <c r="N18" s="64"/>
@@ -6170,14 +6170,14 @@
     </row>
     <row r="19" spans="1:1025" ht="18.95" customHeight="1">
       <c r="B19" s="9"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
       <c r="L19" s="63"/>
       <c r="M19" s="64"/>
       <c r="N19" s="64"/>
@@ -6190,9 +6190,9 @@
     </row>
     <row r="20" spans="1:1025" ht="18.95" customHeight="1">
       <c r="B20" s="9"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -6210,9 +6210,9 @@
     </row>
     <row r="21" spans="1:1025" ht="18.95" customHeight="1">
       <c r="B21" s="9"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -6230,9 +6230,9 @@
     </row>
     <row r="22" spans="1:1025" ht="18.95" customHeight="1">
       <c r="B22" s="6"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -6250,25 +6250,25 @@
     </row>
     <row r="23" spans="1:1025" ht="18.95" customHeight="1">
       <c r="B23" s="6"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
       <c r="AMC23" s="3"/>
       <c r="AMD23" s="3"/>
       <c r="AME23" s="3"/>
@@ -6281,9 +6281,9 @@
     </row>
     <row r="24" spans="1:1025" ht="18.95" customHeight="1">
       <c r="B24" s="6"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
@@ -7534,16 +7534,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="L24:T31"/>
+    <mergeCell ref="L23:T23"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="F5:P5"/>
     <mergeCell ref="C7:E7"/>
@@ -7560,22 +7566,16 @@
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="L24:T31"/>
-    <mergeCell ref="L23:T23"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="C24:E24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="K4">
@@ -7592,7 +7592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -7602,500 +7602,500 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="18" customHeight="1">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="2:20" ht="18" customHeight="1"/>
     <row r="3" spans="2:20" ht="18" customHeight="1">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="75" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="75" t="s">
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="77"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="84"/>
     </row>
     <row r="4" spans="2:20" ht="18" customHeight="1">
-      <c r="B4" s="87"/>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="80"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="87"/>
     </row>
     <row r="5" spans="2:20" ht="18" customHeight="1">
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="72" t="s">
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="74"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="78"/>
     </row>
     <row r="6" spans="2:20" ht="18" customHeight="1">
       <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="74"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="78"/>
     </row>
     <row r="7" spans="2:20" ht="18" customHeight="1">
       <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="74"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="78"/>
     </row>
     <row r="8" spans="2:20" ht="18" customHeight="1">
       <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="74"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="78"/>
     </row>
     <row r="9" spans="2:20" ht="18" customHeight="1">
       <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="74"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="78"/>
     </row>
     <row r="10" spans="2:20" ht="18" customHeight="1">
       <c r="B10" s="7"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="74"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="78"/>
     </row>
     <row r="11" spans="2:20" ht="18" customHeight="1">
       <c r="B11" s="7"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="74"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="78"/>
     </row>
     <row r="12" spans="2:20" ht="18" customHeight="1">
       <c r="B12" s="7"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="74"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="78"/>
     </row>
     <row r="13" spans="2:20" ht="18" customHeight="1">
       <c r="B13" s="7"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="74"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="78"/>
     </row>
     <row r="14" spans="2:20" ht="18" customHeight="1">
       <c r="B14" s="7"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="74"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="78"/>
     </row>
     <row r="15" spans="2:20" ht="18" customHeight="1">
       <c r="B15" s="7"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="74"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="78"/>
     </row>
     <row r="16" spans="2:20" ht="18" customHeight="1">
       <c r="B16" s="7"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="74"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="78"/>
     </row>
     <row r="17" spans="2:20" ht="18" customHeight="1">
       <c r="B17" s="7"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="71"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="81"/>
     </row>
     <row r="18" spans="2:20" ht="18" customHeight="1">
       <c r="B18" s="7"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="71"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="81"/>
     </row>
     <row r="19" spans="2:20" ht="18" customHeight="1">
       <c r="B19" s="7"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="71"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="81"/>
     </row>
     <row r="20" spans="2:20" ht="18" customHeight="1">
       <c r="B20" s="7"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="71"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="81"/>
     </row>
     <row r="21" spans="2:20" ht="18" customHeight="1">
       <c r="B21" s="7"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="71"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="81"/>
     </row>
     <row r="22" spans="2:20" ht="18" customHeight="1">
       <c r="B22" s="7"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="71"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="81"/>
     </row>
     <row r="23" spans="2:20" ht="18" customHeight="1">
       <c r="C23" s="31"/>
@@ -8105,11 +8105,11 @@
       <c r="G23" s="31"/>
     </row>
     <row r="24" spans="2:20" ht="18" customHeight="1">
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
     </row>
     <row r="25" spans="2:20" ht="18" customHeight="1"/>
     <row r="26" spans="2:20" ht="18" customHeight="1"/>
@@ -8154,6 +8154,54 @@
     <row r="65" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="J3:P4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:T5"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="B1:F1"/>
@@ -8168,56 +8216,9 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C22:G22"/>
-    <mergeCell ref="J3:P4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:T21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8232,351 +8233,351 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89" t="s">
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89" t="s">
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88" t="s">
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="88" t="s">
+      <c r="J6" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="5"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
     </row>
     <row r="8" spans="2:20">
       <c r="B8" s="5"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
     </row>
     <row r="9" spans="2:20">
       <c r="B9" s="5"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="5"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="5"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="5"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="5"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="5"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
     </row>
     <row r="15" spans="2:20">
       <c r="B15" s="5"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
     </row>
     <row r="16" spans="2:20">
       <c r="B16" s="5"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="88"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" s="5"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="29"/>
@@ -8593,11 +8594,11 @@
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="5"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="29"/>
@@ -8614,11 +8615,11 @@
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="5"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="29"/>
@@ -8698,50 +8699,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="J3:P4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:T20"/>
     <mergeCell ref="Q8:T8"/>
     <mergeCell ref="J8:P8"/>
     <mergeCell ref="C8:G8"/>
@@ -8758,6 +8715,50 @@
     <mergeCell ref="J15:P15"/>
     <mergeCell ref="Q15:T15"/>
     <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="J3:P4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="C4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
